--- a/data/equipments/equipment_data.xlsx
+++ b/data/equipments/equipment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\IRIS_docs\data\equipments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE68F237-5FD7-4E0E-845E-3FEE437EC631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556F5399-631E-43FB-95E2-A4218387C543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="192" windowWidth="38916" windowHeight="16488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -91,46 +91,100 @@
     <t>possible_injured</t>
   </si>
   <si>
-    <t>Емкость V=6,3 м³</t>
-  </si>
-  <si>
     <t>ж.ф.</t>
   </si>
   <si>
-    <t>Площадка насосной станции ДНС-34</t>
-  </si>
-  <si>
-    <t>Аппарат 1-200-1,0-1 V=200 м³</t>
-  </si>
-  <si>
-    <t>Емкость V=200 м³</t>
-  </si>
-  <si>
-    <t>Емкость ингибиторная V=100 м³</t>
-  </si>
-  <si>
-    <t>Трубопровод Прием емкостей №1,2,3 (L=40 м, D=325 мм)</t>
-  </si>
-  <si>
-    <t>Трубопровод технологический (L=80 м, D=273 мм)</t>
-  </si>
-  <si>
-    <t>Внутриплощадочный нефтепровод от емкостей 1,2,3 до отсекателя (L=55 м, D=159 мм)</t>
-  </si>
-  <si>
-    <t>Внутриплощадочный нефтепровод от емкостей 1,2,3 на ФУ (L=60 м, D=159 мм)</t>
-  </si>
-  <si>
-    <t>Внутриплощадочный нефтепровод между емкостями 1,2,3 до емкости (L=16 м, D=273 мм)</t>
-  </si>
-  <si>
-    <t>Внутриплощадочный ТР-Д от Е1,2,3 до ЦНС 1,2,3 (L=38 м, D=377 мм)</t>
-  </si>
-  <si>
-    <t>Блок дозирования и приготовления реагентов (V=0,64 м³)</t>
-  </si>
-  <si>
     <t>[0, 0]</t>
+  </si>
+  <si>
+    <t>Сепаратор С-1</t>
+  </si>
+  <si>
+    <t>ж.ф.+г.ф.</t>
+  </si>
+  <si>
+    <t>Отстойник нефти О-1/1-3</t>
+  </si>
+  <si>
+    <t>Электродегидратор ЭГ-1/1-2</t>
+  </si>
+  <si>
+    <t>Буферная емкость Е-1</t>
+  </si>
+  <si>
+    <t>Маслоотделитель М-1/1-3</t>
+  </si>
+  <si>
+    <t>Сепаратор газа С-7/1-3</t>
+  </si>
+  <si>
+    <t>Сепаратор концевой С-4/1-6</t>
+  </si>
+  <si>
+    <t>Пункт подготовки и сбора нефти</t>
+  </si>
+  <si>
+    <t>Отстойник нефти О-1,2</t>
+  </si>
+  <si>
+    <t>Резервуар пластовой воды РВС-18,20,52</t>
+  </si>
+  <si>
+    <t>Емкость нефти Е-2/2</t>
+  </si>
+  <si>
+    <t>Технологические газопроводы</t>
+  </si>
+  <si>
+    <t>г.ф.</t>
+  </si>
+  <si>
+    <t>Насосная установка ЦНС</t>
+  </si>
+  <si>
+    <t>Емкость Е-16/3,4</t>
+  </si>
+  <si>
+    <t>Технологический трубопроводы</t>
+  </si>
+  <si>
+    <t>Ёмкость хранения масла T-19</t>
+  </si>
+  <si>
+    <t>Газокомпрессорная</t>
+  </si>
+  <si>
+    <t>Компрессорная установка</t>
+  </si>
+  <si>
+    <t>Емкость хранения метанола Е-1-5</t>
+  </si>
+  <si>
+    <t>Склад метанола</t>
+  </si>
+  <si>
+    <t>Технологические газопроводы (внутренние)</t>
+  </si>
+  <si>
+    <t>Котельная</t>
+  </si>
+  <si>
+    <t>Технологические газопроводы (наружные)</t>
+  </si>
+  <si>
+    <t>Резервуар нефти РВС-5</t>
+  </si>
+  <si>
+    <t>Товарно-сырьевой склад</t>
+  </si>
+  <si>
+    <t>Резервуар нефти РВС-7,8,48</t>
+  </si>
+  <si>
+    <t>Резервуар нефти РВС-9</t>
+  </si>
+  <si>
+    <t>Резервуар нефти РВС-47</t>
   </si>
 </sst>
 </file>
@@ -166,8 +220,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -502,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,52 +669,52 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
       <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>89</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>0.85</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>450</v>
+      </c>
+      <c r="Q2">
         <v>10</v>
-      </c>
-      <c r="J2">
-        <v>59</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>6.3</v>
-      </c>
-      <c r="M2">
-        <v>0.8</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>20</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>35</v>
       </c>
       <c r="R2">
         <v>100</v>
@@ -665,8 +722,8 @@
       <c r="S2">
         <v>3600</v>
       </c>
-      <c r="T2" t="s">
-        <v>25</v>
+      <c r="T2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="U2">
         <v>2</v>
@@ -683,40 +740,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
       <c r="I3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J3">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>200</v>
       </c>
       <c r="M3">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="N3">
         <v>0.6</v>
@@ -725,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>360</v>
+        <v>550</v>
       </c>
       <c r="Q3">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="R3">
         <v>100</v>
@@ -736,14 +793,14 @@
       <c r="S3">
         <v>3600</v>
       </c>
-      <c r="T3" t="s">
-        <v>25</v>
+      <c r="T3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="U3">
         <v>2</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W3">
         <v>2</v>
@@ -754,40 +811,40 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
       <c r="I4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J4">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>200</v>
       </c>
       <c r="M4">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="N4">
         <v>0.6</v>
@@ -796,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="Q4">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="R4">
         <v>100</v>
@@ -807,8 +864,8 @@
       <c r="S4">
         <v>3600</v>
       </c>
-      <c r="T4" t="s">
-        <v>25</v>
+      <c r="T4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="U4">
         <v>2</v>
@@ -825,52 +882,52 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
       <c r="I5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J5">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="N5">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="Q5">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="R5">
         <v>100</v>
@@ -878,8 +935,8 @@
       <c r="S5">
         <v>3600</v>
       </c>
-      <c r="T5" t="s">
-        <v>25</v>
+      <c r="T5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="U5">
         <v>2</v>
@@ -896,61 +953,61 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
         <v>24</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
       <c r="I6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J6">
-        <v>354</v>
+        <v>89</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q6">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="R6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="S6">
         <v>3600</v>
       </c>
-      <c r="T6" t="s">
-        <v>25</v>
+      <c r="T6" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="U6">
         <v>2</v>
@@ -967,61 +1024,61 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
         <v>24</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
       <c r="I7">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J7">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="O7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q7">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="R7">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="S7">
         <v>3600</v>
       </c>
-      <c r="T7" t="s">
-        <v>25</v>
+      <c r="T7" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="U7">
         <v>2</v>
@@ -1038,52 +1095,52 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
         <v>24</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
       <c r="I8">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="J8">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="Q8">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="R8">
         <v>100</v>
@@ -1091,8 +1148,8 @@
       <c r="S8">
         <v>3600</v>
       </c>
-      <c r="T8" t="s">
-        <v>25</v>
+      <c r="T8" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -1109,52 +1166,52 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
         <v>24</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
       <c r="I9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J9">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="Q9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="R9">
         <v>100</v>
@@ -1162,14 +1219,14 @@
       <c r="S9">
         <v>3600</v>
       </c>
-      <c r="T9" t="s">
-        <v>25</v>
+      <c r="T9" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="U9">
         <v>2</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W9">
         <v>2</v>
@@ -1180,52 +1237,52 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>24</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
       <c r="I10">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="J10">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="Q10">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="R10">
         <v>100</v>
@@ -1233,11 +1290,11 @@
       <c r="S10">
         <v>3600</v>
       </c>
-      <c r="T10" t="s">
-        <v>25</v>
+      <c r="T10" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V10">
         <v>1</v>
@@ -1246,57 +1303,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
         <v>24</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
       <c r="I11">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J11">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="Q11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="R11">
         <v>100</v>
@@ -1304,8 +1361,8 @@
       <c r="S11">
         <v>3600</v>
       </c>
-      <c r="T11" t="s">
-        <v>25</v>
+      <c r="T11" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -1319,55 +1376,55 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <v>55</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12">
-        <v>40</v>
-      </c>
-      <c r="J12">
-        <v>59</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.8</v>
-      </c>
-      <c r="N12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>360</v>
-      </c>
-      <c r="Q12">
-        <v>35</v>
       </c>
       <c r="R12">
         <v>100</v>
@@ -1375,18 +1432,873 @@
       <c r="S12">
         <v>3600</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>0.2</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>60</v>
+      </c>
+      <c r="Q13">
+        <v>50</v>
+      </c>
+      <c r="R13">
+        <v>100</v>
+      </c>
+      <c r="S13">
+        <v>3600</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+      <c r="J14">
+        <v>159</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>0.85</v>
+      </c>
+      <c r="N14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>130</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>100</v>
+      </c>
+      <c r="S14">
+        <v>3600</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>1233</v>
+      </c>
+      <c r="J15">
+        <v>159</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>0.85</v>
+      </c>
+      <c r="N15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>300</v>
+      </c>
+      <c r="Q15">
+        <v>50</v>
+      </c>
+      <c r="R15">
+        <v>100</v>
+      </c>
+      <c r="S15">
+        <v>3600</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <v>60</v>
+      </c>
+      <c r="J16">
+        <v>89</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>23</v>
+      </c>
+      <c r="M16">
+        <v>0.95</v>
+      </c>
+      <c r="N16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>80</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>100</v>
+      </c>
+      <c r="S16">
+        <v>3600</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <v>550</v>
+      </c>
+      <c r="J17">
+        <v>219</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>300</v>
+      </c>
+      <c r="S17">
+        <v>3600</v>
+      </c>
+      <c r="T17" t="s">
+        <v>43</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>300</v>
+      </c>
+      <c r="J18">
+        <v>159</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
         <v>25</v>
       </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <v>2</v>
-      </c>
+      <c r="M18">
+        <v>0.95</v>
+      </c>
+      <c r="N18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>260</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+      <c r="R18">
+        <v>100</v>
+      </c>
+      <c r="S18">
+        <v>3600</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <v>150</v>
+      </c>
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>300</v>
+      </c>
+      <c r="S19">
+        <v>3600</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <v>350</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+      <c r="R20">
+        <v>300</v>
+      </c>
+      <c r="S20">
+        <v>3600</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>450</v>
+      </c>
+      <c r="J21">
+        <v>159</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>240</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0.1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>2500</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21">
+        <v>100</v>
+      </c>
+      <c r="S21">
+        <v>3600</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22">
+        <v>450</v>
+      </c>
+      <c r="J22">
+        <v>159</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>860</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0.1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>3200</v>
+      </c>
+      <c r="Q22">
+        <v>10</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+      <c r="S22">
+        <v>3600</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23">
+        <v>450</v>
+      </c>
+      <c r="J23">
+        <v>159</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>3100</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0.1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>3700</v>
+      </c>
+      <c r="Q23">
+        <v>10</v>
+      </c>
+      <c r="R23">
+        <v>100</v>
+      </c>
+      <c r="S23">
+        <v>3600</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24">
+        <v>450</v>
+      </c>
+      <c r="J24">
+        <v>159</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>3850</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0.1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>4500</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="R24">
+        <v>100</v>
+      </c>
+      <c r="S24">
+        <v>3600</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
